--- a/biology/Zoologie/Geai_à_calotte_azur/Geai_à_calotte_azur.xlsx
+++ b/biology/Zoologie/Geai_à_calotte_azur/Geai_à_calotte_azur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Geai_%C3%A0_calotte_azur</t>
+          <t>Geai_à_calotte_azur</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Geai à calotte azur (Cyanocorax heilprini) est une espèce d'oiseaux de la famille des Corvidae.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Geai_%C3%A0_calotte_azur</t>
+          <t>Geai_à_calotte_azur</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La sous-espèce hafferi est nommée ainsi en l'honneur de l'ornithologue Jürgen Haffer, notamment connu pour son étude de l'avifaune amazonienne.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Geai_%C3%A0_calotte_azur</t>
+          <t>Geai_à_calotte_azur</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le geai à calotte azur mesure 36 cm. Sa tête est noire et ses iris sont jaunes. Sa queue est marron, avec une pointe blanche.
 </t>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Geai_%C3%A0_calotte_azur</t>
+          <t>Geai_à_calotte_azur</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,7 +589,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le geai à calotte azur se rencontre au Brésil, au Venezuela et en Colombie. Il habite les forêts sèches, les savanes, les maquis, les zones terrestres artificielles et les anciennes forêts.
 </t>
@@ -586,7 +604,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Geai_%C3%A0_calotte_azur</t>
+          <t>Geai_à_calotte_azur</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -604,12 +622,14 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classification actuelle du COI considère actuellement qu'il en existe deux sous-espèces[2]:
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classification actuelle du COI considère actuellement qu'il en existe deux sous-espèces:
 sous-espèce Cyanocorax heilprini heilprini - Colombie, Venezuela et Brésil
 sous-espèce Cyanocorax heilprini hafferi - Amazonie au Brésil (entre le rio Madeira et le rio Purus). Ses parties inférieures ont une teinte plus azur et claire que celles de la sous-espèce nominale. Son dos est également plus clair et plus terne. Elle peut être identifiée au fait qu'elle porte 3 marques bleues sur le visage au lieu d'une.
-La sous-espèce hafferi a été décrite en tant qu'espèce en 2013 sur la base d'observations faites en 2002 par Mario Cohn-Haft[3] ; cependant elle a ensuite été reclassée comme sous-espèce dans la plupart des classifications, notamment à la suite de la discussion du South American Classification Committee sur son acception[4]. Il est à noter que les deux sous-espèces sont à la limite de l'espèce, et sont vraisemblablement sur la voie de la spéciation ; il n'est pas exclu que de futures recherches ne fassent reconsidérer son status. 
+La sous-espèce hafferi a été décrite en tant qu'espèce en 2013 sur la base d'observations faites en 2002 par Mario Cohn-Haft ; cependant elle a ensuite été reclassée comme sous-espèce dans la plupart des classifications, notamment à la suite de la discussion du South American Classification Committee sur son acception. Il est à noter que les deux sous-espèces sont à la limite de l'espèce, et sont vraisemblablement sur la voie de la spéciation ; il n'est pas exclu que de futures recherches ne fassent reconsidérer son status. 
 </t>
         </is>
       </c>
